--- a/data_files/报告数据-周度.xlsx
+++ b/data_files/报告数据-周度.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="73">
   <si>
     <t>周度数</t>
   </si>
@@ -28,28 +28,28 @@
     <t>成交面积</t>
   </si>
   <si>
-    <t>第45周</t>
-  </si>
-  <si>
-    <t>第46周</t>
-  </si>
-  <si>
-    <t>第47周</t>
-  </si>
-  <si>
-    <t>第48周</t>
-  </si>
-  <si>
-    <t>第49周</t>
-  </si>
-  <si>
-    <t>第50周</t>
-  </si>
-  <si>
-    <t>第51周</t>
-  </si>
-  <si>
-    <t>第52周</t>
+    <t>第01周</t>
+  </si>
+  <si>
+    <t>第02周</t>
+  </si>
+  <si>
+    <t>第03周</t>
+  </si>
+  <si>
+    <t>第04周</t>
+  </si>
+  <si>
+    <t>第05周</t>
+  </si>
+  <si>
+    <t>第06周</t>
+  </si>
+  <si>
+    <t>第07周</t>
+  </si>
+  <si>
+    <t>第08周</t>
   </si>
   <si>
     <t>成交套数</t>
@@ -61,13 +61,25 @@
     <t>城市</t>
   </si>
   <si>
-    <t>去年第52周成交面积</t>
-  </si>
-  <si>
-    <t>52周环比</t>
-  </si>
-  <si>
-    <t>52周同比</t>
+    <t>05周</t>
+  </si>
+  <si>
+    <t>06周</t>
+  </si>
+  <si>
+    <t>07周</t>
+  </si>
+  <si>
+    <t>08周</t>
+  </si>
+  <si>
+    <t>08周环比</t>
+  </si>
+  <si>
+    <t>08周同比</t>
+  </si>
+  <si>
+    <t>去年第08周成交面积</t>
   </si>
   <si>
     <t>一线</t>
@@ -133,31 +145,28 @@
     <t>南京</t>
   </si>
   <si>
+    <t>遵义</t>
+  </si>
+  <si>
     <t>衢州</t>
   </si>
   <si>
     <t>莆田</t>
   </si>
   <si>
-    <t>肇庆</t>
-  </si>
-  <si>
     <t>潍坊</t>
   </si>
   <si>
     <t>渭南</t>
   </si>
   <si>
-    <t>清远</t>
-  </si>
-  <si>
     <t>淮北</t>
   </si>
   <si>
     <t>泰安</t>
   </si>
   <si>
-    <t>汕头</t>
+    <t>梅州</t>
   </si>
   <si>
     <t>景德镇</t>
@@ -172,10 +181,13 @@
     <t>佛山</t>
   </si>
   <si>
-    <t>遵义</t>
-  </si>
-  <si>
-    <t>去年第52周成交套数</t>
+    <t>东莞</t>
+  </si>
+  <si>
+    <t>韶关</t>
+  </si>
+  <si>
+    <t>去年第08周成交套数</t>
   </si>
   <si>
     <t>无锡</t>
@@ -603,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>294.98606926</v>
+        <v>315.62040816</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -611,7 +623,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>268.45520634</v>
+        <v>228.45528944</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -619,7 +631,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>313.908996</v>
+        <v>220.90791116</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -627,7 +639,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>438.8202682</v>
+        <v>229.11441103</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -635,7 +647,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>312.61331487</v>
+        <v>29.21388445</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -643,7 +655,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>346.34413568</v>
+        <v>72.85776417</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -651,7 +663,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>388.16062577</v>
+        <v>158.15257573</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -659,7 +671,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>426.55388264</v>
+        <v>195.84999147</v>
       </c>
     </row>
   </sheetData>
@@ -688,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>35387</v>
+        <v>26193</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -696,7 +708,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>32760</v>
+        <v>30935</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -704,7 +716,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>31232</v>
+        <v>29587</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -712,7 +724,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>33166</v>
+        <v>23067</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -720,7 +732,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>42271</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -728,7 +740,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>36644</v>
+        <v>11196</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -736,7 +748,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>33644</v>
+        <v>22445</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -744,7 +756,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>35527</v>
+        <v>27770</v>
       </c>
     </row>
   </sheetData>
@@ -768,1011 +780,1011 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C2">
-        <v>18.556446</v>
+        <v>1.183321</v>
       </c>
       <c r="D2">
-        <v>24.074292</v>
+        <v>6.826935</v>
       </c>
       <c r="E2">
-        <v>23.774814</v>
+        <v>10.736531</v>
       </c>
       <c r="F2">
-        <v>39.201797</v>
+        <v>16.428591</v>
       </c>
       <c r="G2">
-        <v>16.594173</v>
+        <v>0.5301582047311186</v>
       </c>
       <c r="H2">
-        <v>0.6488792299279397</v>
+        <v>0.8779013664018632</v>
       </c>
       <c r="I2">
-        <v>1.362383289604128</v>
+        <v>8.748378000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>12.631487</v>
+        <v>0.677853</v>
       </c>
       <c r="D3">
-        <v>13.542557</v>
+        <v>2.335389</v>
       </c>
       <c r="E3">
-        <v>17.538215</v>
+        <v>6.830524</v>
       </c>
       <c r="F3">
-        <v>17.867114</v>
+        <v>8.154835</v>
       </c>
       <c r="G3">
-        <v>18.251456</v>
+        <v>0.1938813186221144</v>
       </c>
       <c r="H3">
-        <v>0.01875327677303533</v>
+        <v>0.6819246061783055</v>
       </c>
       <c r="I3">
-        <v>-0.02105815557947816</v>
+        <v>4.848514</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C4">
-        <v>18.09740287</v>
+        <v>0.73029545</v>
       </c>
       <c r="D4">
-        <v>39.15445168</v>
+        <v>2.63875017</v>
       </c>
       <c r="E4">
-        <v>22.28390777</v>
+        <v>8.261902729999999</v>
       </c>
       <c r="F4">
-        <v>26.51951564</v>
+        <v>11.24298447</v>
       </c>
       <c r="G4">
-        <v>13.13193707</v>
+        <v>0.3608226624570779</v>
       </c>
       <c r="H4">
-        <v>0.1900747352626475</v>
+        <v>0.5869713195464834</v>
       </c>
       <c r="I4">
-        <v>1.019467158473065</v>
+        <v>7.08455429</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C5">
-        <v>14.127506</v>
+        <v>1.128951</v>
       </c>
       <c r="D5">
-        <v>18.277526</v>
+        <v>2.720232</v>
       </c>
       <c r="E5">
-        <v>18.427624</v>
+        <v>7.764859</v>
       </c>
       <c r="F5">
-        <v>16.222688</v>
+        <v>7.66128</v>
       </c>
       <c r="G5">
-        <v>2.321261</v>
+        <v>-0.01333945664692698</v>
       </c>
       <c r="H5">
-        <v>-0.1196538414284989</v>
+        <v>2.683552081820813</v>
       </c>
       <c r="I5">
-        <v>5.988739310228365</v>
+        <v>2.079862</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>63.41284187</v>
+        <v>3.72042045</v>
       </c>
       <c r="D6">
-        <v>95.04882668</v>
+        <v>14.52130617</v>
       </c>
       <c r="E6">
-        <v>82.02456076999999</v>
+        <v>33.59381673</v>
       </c>
       <c r="F6">
-        <v>99.81111464</v>
+        <v>43.48769047</v>
       </c>
       <c r="G6">
-        <v>50.29882707</v>
+        <v>0.2945147263116594</v>
       </c>
       <c r="H6">
-        <v>0.2168442440048437</v>
+        <v>0.9105971377359697</v>
       </c>
       <c r="I6">
-        <v>0.9843626671670616</v>
+        <v>22.76130829</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7">
-        <v>194.991726</v>
+        <v>19.930255</v>
       </c>
       <c r="D7">
-        <v>193.584055</v>
+        <v>44.619718</v>
       </c>
       <c r="E7">
-        <v>248.623706</v>
+        <v>97.320283</v>
       </c>
       <c r="F7">
-        <v>266.643696</v>
+        <v>113.54178</v>
       </c>
       <c r="G7">
-        <v>223.006646</v>
+        <v>0.1666815642120564</v>
       </c>
       <c r="H7">
-        <v>0.07247896948330414</v>
+        <v>0.04704794789335168</v>
       </c>
       <c r="I7">
-        <v>0.1956760068935344</v>
+        <v>108.439905</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C8">
-        <v>17.17734</v>
+        <v>1.486021</v>
       </c>
       <c r="D8">
-        <v>12.709581</v>
+        <v>1.382037</v>
       </c>
       <c r="E8">
-        <v>16.640697</v>
+        <v>4.428431</v>
       </c>
       <c r="F8">
-        <v>17.218743</v>
+        <v>4.298057</v>
       </c>
       <c r="G8">
-        <v>14.645669</v>
+        <v>-0.02944022386258243</v>
       </c>
       <c r="H8">
-        <v>0.03473688632152851</v>
+        <v>0.06581744609423268</v>
       </c>
       <c r="I8">
-        <v>0.1756883895163819</v>
+        <v>4.032639</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C9">
-        <v>33.02</v>
+        <v>3.05</v>
       </c>
       <c r="D9">
-        <v>35.45</v>
+        <v>13.32</v>
       </c>
       <c r="E9">
-        <v>37.07</v>
+        <v>23.55</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>24.69</v>
       </c>
       <c r="G9">
-        <v>29.85</v>
+        <v>0.04840764331210193</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>0.5547858942065493</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>15.88</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C10">
-        <v>20.0206</v>
+        <v>2.3308</v>
       </c>
       <c r="D10">
-        <v>14.1578</v>
+        <v>2.9374</v>
       </c>
       <c r="E10">
-        <v>13.9101</v>
+        <v>7.98</v>
       </c>
       <c r="F10">
-        <v>31.0901</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="G10">
-        <v>38.300707</v>
+        <v>0.006265664160400869</v>
       </c>
       <c r="H10">
-        <v>1.235073795299818</v>
+        <v>0.18984115694642</v>
       </c>
       <c r="I10">
-        <v>-0.1882630260585008</v>
+        <v>6.7488</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C11">
-        <v>43.038001</v>
+        <v>3.808595</v>
       </c>
       <c r="D11">
-        <v>49.561098</v>
+        <v>4.754158</v>
       </c>
       <c r="E11">
-        <v>87.973923</v>
+        <v>14.226003</v>
       </c>
       <c r="F11">
-        <v>108.494706</v>
+        <v>12.160614</v>
       </c>
       <c r="G11">
-        <v>40.48809900000001</v>
+        <v>-0.1451840689194287</v>
       </c>
       <c r="H11">
-        <v>0.2332598376907666</v>
+        <v>0.2259169138454781</v>
       </c>
       <c r="I11">
-        <v>1.679669055343892</v>
+        <v>9.919606999999999</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C12">
-        <v>13.025902</v>
+        <v>1.132572</v>
       </c>
       <c r="D12">
-        <v>12.694835</v>
+        <v>2.833781</v>
       </c>
       <c r="E12">
-        <v>12.126393</v>
+        <v>11.756236</v>
       </c>
       <c r="F12">
-        <v>16.119643</v>
+        <v>12.743246</v>
       </c>
       <c r="G12">
-        <v>8.189918</v>
+        <v>0.083956293493938</v>
       </c>
       <c r="H12">
-        <v>0.3293023737561532</v>
+        <v>0.1779956545436124</v>
       </c>
       <c r="I12">
-        <v>0.9682300848433402</v>
+        <v>10.817736</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C13">
-        <v>3.423206</v>
+        <v>0.550157</v>
       </c>
       <c r="D13">
-        <v>4.270975</v>
+        <v>1.830398</v>
       </c>
       <c r="E13">
-        <v>5.900609</v>
+        <v>2.833434</v>
       </c>
       <c r="F13">
-        <v>5.490969</v>
+        <v>3.406453</v>
       </c>
       <c r="G13">
-        <v>7.235829</v>
+        <v>0.2022348147159946</v>
       </c>
       <c r="H13">
-        <v>-0.06942334257362257</v>
+        <v>-0.7781943947683759</v>
       </c>
       <c r="I13">
-        <v>-0.2411416853549193</v>
+        <v>15.357831</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C14">
-        <v>10.712382</v>
+        <v>1.900551</v>
       </c>
       <c r="D14">
-        <v>13.876163</v>
+        <v>2.506333</v>
       </c>
       <c r="E14">
-        <v>13.558419</v>
+        <v>3.298154</v>
       </c>
       <c r="F14">
-        <v>12.765112</v>
+        <v>5.816704</v>
       </c>
       <c r="G14">
-        <v>27.463063</v>
+        <v>0.7636241364108528</v>
       </c>
       <c r="H14">
-        <v>-0.05851028796204044</v>
+        <v>-0.01797134667004103</v>
       </c>
       <c r="I14">
-        <v>-0.5351897929229525</v>
+        <v>5.923151</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C15">
-        <v>10.113236</v>
+        <v>1.023076</v>
       </c>
       <c r="D15">
-        <v>10.83642</v>
+        <v>1.744408</v>
       </c>
       <c r="E15">
-        <v>16.782827</v>
+        <v>3.193266</v>
       </c>
       <c r="F15">
-        <v>35.70298</v>
+        <v>6.350787</v>
       </c>
       <c r="G15">
-        <v>10.159076</v>
+        <v>0.9888061314027708</v>
       </c>
       <c r="H15">
-        <v>1.127351965196328</v>
+        <v>0.2146363714605388</v>
       </c>
       <c r="I15">
-        <v>2.514392450652008</v>
+        <v>5.22855</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C16">
-        <v>4.173901</v>
+        <v>0.157045</v>
       </c>
       <c r="D16">
-        <v>1.493316</v>
+        <v>1.324311</v>
       </c>
       <c r="E16">
-        <v>4.586305</v>
+        <v>2.447647</v>
       </c>
       <c r="F16">
-        <v>3.274783</v>
+        <v>2.83827</v>
       </c>
       <c r="G16">
-        <v>1.58874</v>
+        <v>0.1595912319055811</v>
       </c>
       <c r="H16">
-        <v>-0.2859648453384587</v>
+        <v>1.293879609447169</v>
       </c>
       <c r="I16">
-        <v>1.0612453894281</v>
+        <v>1.237323</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C17">
-        <v>21.425521</v>
+        <v>0.941518</v>
       </c>
       <c r="D17">
-        <v>18.963834</v>
+        <v>2.224037</v>
       </c>
       <c r="E17">
-        <v>15.510146</v>
+        <v>4.936838</v>
       </c>
       <c r="F17">
-        <v>15.411851</v>
+        <v>12.243315</v>
       </c>
       <c r="G17">
-        <v>27.14515</v>
+        <v>1.479991241357322</v>
       </c>
       <c r="H17">
-        <v>-0.00633746452161058</v>
+        <v>0.8019879199415748</v>
       </c>
       <c r="I17">
-        <v>-0.4322429236898673</v>
+        <v>6.794338</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C18">
-        <v>7.198947</v>
+        <v>2.815989</v>
       </c>
       <c r="D18">
-        <v>7.241794000000001</v>
+        <v>7.640793</v>
       </c>
       <c r="E18">
-        <v>11.490602</v>
+        <v>14.657149</v>
       </c>
       <c r="F18">
-        <v>6.107058</v>
+        <v>15.619205</v>
       </c>
       <c r="G18">
-        <v>7.385776</v>
+        <v>0.06563732141905636</v>
       </c>
       <c r="H18">
-        <v>-0.4685171412254988</v>
+        <v>-0.2999150353005108</v>
       </c>
       <c r="I18">
-        <v>-0.1731325185058414</v>
+        <v>22.310442</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C19">
-        <v>11.66269</v>
+        <v>0.733931</v>
       </c>
       <c r="D19">
-        <v>12.328239</v>
+        <v>2.122062</v>
       </c>
       <c r="E19">
-        <v>13.073685</v>
+        <v>4.013125</v>
       </c>
       <c r="F19">
-        <v>14.967751</v>
+        <v>5.345129</v>
       </c>
       <c r="G19">
-        <v>10.554619</v>
+        <v>0.3319119140320821</v>
       </c>
       <c r="H19">
-        <v>0.1448762150839645</v>
+        <v>0.2758430147072864</v>
       </c>
       <c r="I19">
-        <v>0.4181232880125753</v>
+        <v>4.189488</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C20">
-        <v>54.208747</v>
+        <v>5.563209000000001</v>
       </c>
       <c r="D20">
-        <v>57.711254</v>
+        <v>13.71674</v>
       </c>
       <c r="E20">
-        <v>57.512359</v>
+        <v>27.238476</v>
       </c>
       <c r="F20">
-        <v>60.099072</v>
+        <v>38.820521</v>
       </c>
       <c r="G20">
-        <v>55.92543</v>
+        <v>0.42520899480573</v>
       </c>
       <c r="H20">
-        <v>0.04497664580233969</v>
+        <v>0.3718797751871909</v>
       </c>
       <c r="I20">
-        <v>0.07462869753527154</v>
+        <v>28.29732</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C21">
-        <v>0.23964</v>
+        <v>0.576145</v>
       </c>
       <c r="D21">
-        <v>0.621047</v>
+        <v>0.992731</v>
       </c>
       <c r="E21">
-        <v>1.088895</v>
+        <v>1.905057</v>
       </c>
       <c r="F21">
-        <v>1.232855</v>
+        <v>2.463072</v>
       </c>
       <c r="G21">
-        <v>0.468177</v>
+        <v>0.2929124955316297</v>
       </c>
       <c r="H21">
-        <v>0.1322074212848806</v>
+        <v>0.3253987514818149</v>
       </c>
       <c r="I21">
-        <v>1.633309624351474</v>
+        <v>1.858363</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C22">
-        <v>2.11</v>
+        <v>0.030894</v>
       </c>
       <c r="D22">
-        <v>1.5</v>
+        <v>0.055642</v>
       </c>
       <c r="E22">
-        <v>2.86</v>
+        <v>0.202111</v>
       </c>
       <c r="F22">
-        <v>1.62</v>
+        <v>0.220455</v>
       </c>
       <c r="G22">
-        <v>0.88</v>
+        <v>0.09076200701594682</v>
       </c>
       <c r="H22">
-        <v>-0.4335664335664335</v>
+        <v>0.5206100235897861</v>
       </c>
       <c r="I22">
-        <v>0.8409090909090911</v>
+        <v>0.144978</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C23">
-        <v>3.8368</v>
+        <v>0.33</v>
       </c>
       <c r="D23">
-        <v>4.7868</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="E23">
-        <v>4.28045</v>
+        <v>0.98</v>
       </c>
       <c r="F23">
-        <v>3.790622</v>
+        <v>1.04</v>
       </c>
       <c r="G23">
-        <v>6.139589</v>
+        <v>0.06122448979591842</v>
       </c>
       <c r="H23">
-        <v>-0.1144337628053126</v>
+        <v>-0.2972972972972973</v>
       </c>
       <c r="I23">
-        <v>-0.3825935253972212</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C24">
-        <v>4.913257</v>
+        <v>1.119895</v>
       </c>
       <c r="D24">
-        <v>6.933643</v>
+        <v>1.124992</v>
       </c>
       <c r="E24">
-        <v>5.572181</v>
+        <v>2.491521</v>
       </c>
       <c r="F24">
-        <v>4.237595</v>
+        <v>2.978757</v>
       </c>
       <c r="G24">
-        <v>14.35968</v>
+        <v>0.1955576533370581</v>
       </c>
       <c r="H24">
-        <v>-0.2395087309618981</v>
+        <v>-0.01205431856036706</v>
       </c>
       <c r="I24">
-        <v>-0.7048962790257165</v>
+        <v>3.015102</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C25">
-        <v>0.323892</v>
+        <v>0.012892</v>
       </c>
       <c r="D25">
-        <v>0.230065</v>
+        <v>0.09249500000000001</v>
       </c>
       <c r="E25">
-        <v>0.187366</v>
+        <v>0.293704</v>
       </c>
       <c r="F25">
-        <v>0.236103</v>
+        <v>0.378002</v>
       </c>
       <c r="G25">
-        <v>0.053926</v>
+        <v>0.2870168605126249</v>
       </c>
       <c r="H25">
-        <v>0.260116563303908</v>
+        <v>1.27226112830994</v>
       </c>
       <c r="I25">
-        <v>3.378277639728517</v>
+        <v>0.166355</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C26">
-        <v>4.218085</v>
+        <v>0.302332</v>
       </c>
       <c r="D26">
-        <v>4.574134</v>
+        <v>0.818951</v>
       </c>
       <c r="E26">
-        <v>4.567218</v>
+        <v>1.52</v>
       </c>
       <c r="F26">
-        <v>4.430438000000001</v>
+        <v>3.329671</v>
       </c>
       <c r="G26">
-        <v>4.75113</v>
+        <v>1.190573026315789</v>
       </c>
       <c r="H26">
-        <v>-0.02994820917241084</v>
+        <v>2.253636762497202</v>
       </c>
       <c r="I26">
-        <v>-0.0674980478328312</v>
+        <v>1.023369</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>0.284643</v>
       </c>
       <c r="D27">
-        <v>1.186159</v>
+        <v>0.665284</v>
       </c>
       <c r="E27">
-        <v>0.9377040000000001</v>
+        <v>1.42667</v>
       </c>
       <c r="F27">
-        <v>0.882244</v>
+        <v>1.914456</v>
       </c>
       <c r="G27">
-        <v>0.664973</v>
+        <v>0.3419052759222527</v>
       </c>
       <c r="H27">
-        <v>-0.05914446349807621</v>
+        <v>-0.400761171311122</v>
       </c>
       <c r="I27">
-        <v>0.3267365742669251</v>
+        <v>3.194813</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C28">
-        <v>4.994804</v>
+        <v>0.8582799999999999</v>
       </c>
       <c r="D28">
-        <v>6.429998</v>
+        <v>2.599304</v>
       </c>
       <c r="E28">
-        <v>5.343369</v>
+        <v>2.575942</v>
       </c>
       <c r="F28">
-        <v>6.614294</v>
+        <v>2.663461</v>
       </c>
       <c r="G28">
-        <v>2.082923</v>
+        <v>0.03397553205778698</v>
       </c>
       <c r="H28">
-        <v>0.2378508764788657</v>
+        <v>-0.2582190312006529</v>
       </c>
       <c r="I28">
-        <v>2.175486563833612</v>
+        <v>3.59063</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C29">
-        <v>3.485541</v>
+        <v>0.353556</v>
       </c>
       <c r="D29">
-        <v>4.651586</v>
+        <v>0.435745</v>
       </c>
       <c r="E29">
-        <v>4.856775</v>
+        <v>0.746328</v>
       </c>
       <c r="F29">
-        <v>4.931993</v>
+        <v>1.227569</v>
       </c>
       <c r="G29">
-        <v>4.108435</v>
+        <v>0.6448116645764328</v>
       </c>
       <c r="H29">
-        <v>0.01548723175358143</v>
+        <v>0.4685350406860036</v>
       </c>
       <c r="I29">
-        <v>0.200455404551855</v>
+        <v>0.8359139999999999</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C30">
-        <v>0.8650770000000001</v>
+        <v>0.2526</v>
       </c>
       <c r="D30">
-        <v>1.542199</v>
+        <v>2.2043</v>
       </c>
       <c r="E30">
-        <v>1.5808</v>
+        <v>4.3987</v>
       </c>
       <c r="F30">
-        <v>1.677166</v>
+        <v>6.2433</v>
       </c>
       <c r="G30">
-        <v>1.014061</v>
+        <v>0.4193511719371632</v>
       </c>
       <c r="H30">
-        <v>0.0609602732793522</v>
+        <v>0.8202040816326529</v>
       </c>
       <c r="I30">
-        <v>0.6539103663389088</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C31">
-        <v>11.7338</v>
+        <v>0.09678</v>
       </c>
       <c r="D31">
-        <v>11.4904</v>
+        <v>0.543053</v>
       </c>
       <c r="E31">
-        <v>9.937900000000001</v>
+        <v>1.253668</v>
       </c>
       <c r="F31">
-        <v>14.4021</v>
+        <v>1.364348</v>
       </c>
       <c r="G31">
-        <v>6.38</v>
+        <v>0.08828493668180101</v>
       </c>
       <c r="H31">
-        <v>0.4492095915636098</v>
+        <v>0.4442924771978558</v>
       </c>
       <c r="I31">
-        <v>1.257382445141066</v>
+        <v>0.944648</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C32">
-        <v>1.554401</v>
+        <v>0.601678</v>
       </c>
       <c r="D32">
-        <v>1.673078</v>
+        <v>1.866822</v>
       </c>
       <c r="E32">
-        <v>2.000711</v>
+        <v>5.432947</v>
       </c>
       <c r="F32">
-        <v>2.258733</v>
+        <v>6.979238</v>
       </c>
       <c r="G32">
-        <v>4.114812000000001</v>
+        <v>0.2846136728372282</v>
       </c>
       <c r="H32">
-        <v>0.1289651528881482</v>
+        <v>0.4756882363388787</v>
       </c>
       <c r="I32">
-        <v>-0.4510726127949468</v>
+        <v>4.72948</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C33">
-        <v>13.96475</v>
+        <v>0.199113</v>
       </c>
       <c r="D33">
-        <v>10.631529</v>
+        <v>0.759028</v>
       </c>
       <c r="E33">
-        <v>12.726585</v>
+        <v>2.524904</v>
       </c>
       <c r="F33">
-        <v>12.048818</v>
+        <v>6.55153</v>
       </c>
       <c r="G33">
-        <v>8.239485</v>
+        <v>1.594763998948079</v>
       </c>
       <c r="H33">
-        <v>-0.05325599915452583</v>
+        <v>1.231518992774292</v>
       </c>
       <c r="I33">
-        <v>0.4623265895866063</v>
+        <v>2.935906</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C34">
-        <v>1.9687</v>
+        <v>0.544401</v>
       </c>
       <c r="D34">
-        <v>1.460616</v>
+        <v>0.988393</v>
       </c>
       <c r="E34">
-        <v>1.572405</v>
+        <v>1.486924</v>
       </c>
       <c r="F34">
-        <v>1.736111</v>
+        <v>1.466662</v>
       </c>
       <c r="G34">
-        <v>2.668239</v>
+        <v>-0.01362678926427982</v>
       </c>
       <c r="H34">
-        <v>0.104111854134272</v>
+        <v>0.5475003218107499</v>
       </c>
       <c r="I34">
-        <v>-0.3493420192119222</v>
+        <v>0.947762</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C35">
-        <v>312.61331487</v>
+        <v>29.21388445</v>
       </c>
       <c r="D35">
-        <v>346.34413568</v>
+        <v>72.85776417</v>
       </c>
       <c r="E35">
-        <v>388.16062577</v>
+        <v>158.15257573</v>
       </c>
       <c r="F35">
-        <v>426.55388264</v>
+        <v>195.84999147</v>
       </c>
       <c r="G35">
-        <v>329.23090307</v>
+        <v>0.2383610609311699</v>
       </c>
       <c r="H35">
-        <v>0.09891074550345925</v>
+        <v>0.2279109245092919</v>
       </c>
       <c r="I35">
-        <v>0.2956070607664296</v>
+        <v>159.49853329</v>
       </c>
     </row>
   </sheetData>
@@ -1796,721 +1808,721 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C2">
-        <v>6804</v>
+        <v>299</v>
       </c>
       <c r="D2">
-        <v>6496</v>
+        <v>1479</v>
       </c>
       <c r="E2">
-        <v>6554</v>
+        <v>4528</v>
       </c>
       <c r="F2">
-        <v>6858</v>
+        <v>5335</v>
       </c>
       <c r="G2">
-        <v>3008</v>
+        <v>0.1782243816254417</v>
       </c>
       <c r="H2">
-        <v>0.04638388770216662</v>
+        <v>0.9211379186172128</v>
       </c>
       <c r="I2">
-        <v>1.279920212765957</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>4825</v>
+        <v>246</v>
       </c>
       <c r="D3">
-        <v>4959</v>
+        <v>1026</v>
       </c>
       <c r="E3">
-        <v>3599</v>
+        <v>2972</v>
       </c>
       <c r="F3">
-        <v>4678</v>
+        <v>3517</v>
       </c>
       <c r="G3">
-        <v>2709</v>
+        <v>0.1833781965006729</v>
       </c>
       <c r="H3">
-        <v>0.2998055015282023</v>
+        <v>0.8847802786709539</v>
       </c>
       <c r="I3">
-        <v>0.7268364710225176</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>2300</v>
+        <v>68</v>
       </c>
       <c r="D4">
-        <v>2037</v>
+        <v>466</v>
       </c>
       <c r="E4">
-        <v>1864</v>
+        <v>970</v>
       </c>
       <c r="F4">
-        <v>1740</v>
+        <v>1140</v>
       </c>
       <c r="G4">
-        <v>324</v>
+        <v>0.1752577319587629</v>
       </c>
       <c r="H4">
-        <v>-0.06652360515021459</v>
+        <v>0.6262482168330956</v>
       </c>
       <c r="I4">
-        <v>4.37037037037037</v>
+        <v>701</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C5">
-        <v>13929</v>
+        <v>613</v>
       </c>
       <c r="D5">
-        <v>13492</v>
+        <v>2971</v>
       </c>
       <c r="E5">
-        <v>12017</v>
+        <v>8470</v>
       </c>
       <c r="F5">
-        <v>13276</v>
+        <v>9992</v>
       </c>
       <c r="G5">
-        <v>6041</v>
+        <v>0.1796930342384888</v>
       </c>
       <c r="H5">
-        <v>0.1047682449862695</v>
+        <v>0.8697604790419161</v>
       </c>
       <c r="I5">
-        <v>1.197649395795398</v>
+        <v>5344</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C6">
-        <v>1785</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>1634</v>
+        <v>457</v>
       </c>
       <c r="E6">
-        <v>1236</v>
+        <v>893</v>
       </c>
       <c r="F6">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="G6">
-        <v>933</v>
+        <v>0.4344904815229563</v>
       </c>
       <c r="H6">
-        <v>0.03559870550161812</v>
+        <v>0.5679314565483476</v>
       </c>
       <c r="I6">
-        <v>0.3719185423365488</v>
+        <v>817</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7">
-        <v>2439</v>
+        <v>153</v>
       </c>
       <c r="D7">
-        <v>1715</v>
+        <v>469</v>
       </c>
       <c r="E7">
-        <v>1649</v>
+        <v>867</v>
       </c>
       <c r="F7">
-        <v>1635</v>
+        <v>945</v>
       </c>
       <c r="G7">
-        <v>856</v>
+        <v>0.08996539792387544</v>
       </c>
       <c r="H7">
-        <v>-0.008489993935718617</v>
+        <v>0.5855704697986577</v>
       </c>
       <c r="I7">
-        <v>0.9100467289719626</v>
+        <v>596</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C8">
-        <v>1332</v>
+        <v>377</v>
       </c>
       <c r="D8">
-        <v>1099</v>
+        <v>645</v>
       </c>
       <c r="E8">
-        <v>1043</v>
+        <v>1000</v>
       </c>
       <c r="F8">
-        <v>974</v>
+        <v>1038</v>
       </c>
       <c r="G8">
-        <v>670</v>
+        <v>0.038</v>
       </c>
       <c r="H8">
-        <v>-0.06615532118887824</v>
+        <v>-0.09265734265734266</v>
       </c>
       <c r="I8">
-        <v>0.4537313432835821</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>1771</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <v>1790</v>
+        <v>312</v>
       </c>
       <c r="E9">
-        <v>1253</v>
+        <v>965</v>
       </c>
       <c r="F9">
-        <v>1611</v>
+        <v>1597</v>
       </c>
       <c r="G9">
-        <v>829</v>
+        <v>0.6549222797927461</v>
       </c>
       <c r="H9">
-        <v>0.2857142857142857</v>
+        <v>1.706779661016949</v>
       </c>
       <c r="I9">
-        <v>0.9433051869722557</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10">
         <v>52</v>
       </c>
-      <c r="C10">
-        <v>1041</v>
-      </c>
       <c r="D10">
-        <v>1023</v>
+        <v>296</v>
       </c>
       <c r="E10">
-        <v>1029</v>
+        <v>623</v>
       </c>
       <c r="F10">
-        <v>914</v>
+        <v>804</v>
       </c>
       <c r="G10">
-        <v>646</v>
+        <v>0.2905296950240771</v>
       </c>
       <c r="H10">
-        <v>-0.1117589893100097</v>
+        <v>0.2053973013493254</v>
       </c>
       <c r="I10">
-        <v>0.4148606811145511</v>
+        <v>667</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>8209</v>
+        <v>565</v>
       </c>
       <c r="D11">
-        <v>6235</v>
+        <v>2867</v>
       </c>
       <c r="E11">
-        <v>6083</v>
+        <v>4052</v>
       </c>
       <c r="F11">
-        <v>5921</v>
+        <v>5049</v>
       </c>
       <c r="G11">
-        <v>3036</v>
+        <v>0.2460513326752221</v>
       </c>
       <c r="H11">
-        <v>-0.02663159625184942</v>
+        <v>0.3417486048365665</v>
       </c>
       <c r="I11">
-        <v>0.9502635046113307</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C12">
-        <v>2169</v>
+        <v>131</v>
       </c>
       <c r="D12">
-        <v>1977</v>
+        <v>514</v>
       </c>
       <c r="E12">
-        <v>1923</v>
+        <v>927</v>
       </c>
       <c r="F12">
-        <v>1984</v>
+        <v>1278</v>
       </c>
       <c r="G12">
+        <v>0.3786407766990291</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12">
         <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0.03172126885075403</v>
-      </c>
-      <c r="I12" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C13">
-        <v>925</v>
+        <v>54</v>
       </c>
       <c r="D13">
-        <v>653</v>
+        <v>157</v>
       </c>
       <c r="E13">
-        <v>576</v>
+        <v>284</v>
       </c>
       <c r="F13">
-        <v>593</v>
+        <v>375</v>
       </c>
       <c r="G13">
-        <v>299</v>
+        <v>0.3204225352112676</v>
       </c>
       <c r="H13">
-        <v>0.02951388888888889</v>
+        <v>0.5822784810126582</v>
       </c>
       <c r="I13">
-        <v>0.9832775919732442</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C14">
-        <v>1473</v>
+        <v>84</v>
       </c>
       <c r="D14">
-        <v>945</v>
+        <v>320</v>
       </c>
       <c r="E14">
-        <v>877</v>
+        <v>494</v>
       </c>
       <c r="F14">
-        <v>1888</v>
+        <v>742</v>
       </c>
       <c r="G14">
-        <v>354</v>
+        <v>0.5020242914979757</v>
       </c>
       <c r="H14">
-        <v>1.152793614595211</v>
+        <v>0.1191553544494721</v>
       </c>
       <c r="I14">
-        <v>4.333333333333333</v>
+        <v>663</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C15">
-        <v>3232</v>
+        <v>291</v>
       </c>
       <c r="D15">
-        <v>2373</v>
+        <v>784</v>
       </c>
       <c r="E15">
-        <v>2379</v>
+        <v>1310</v>
       </c>
       <c r="F15">
-        <v>2414</v>
+        <v>1543</v>
       </c>
       <c r="G15">
-        <v>1555</v>
+        <v>0.1778625954198473</v>
       </c>
       <c r="H15">
-        <v>0.01471206389239176</v>
+        <v>0.09277620396600567</v>
       </c>
       <c r="I15">
-        <v>0.5524115755627009</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C16">
-        <v>24376</v>
+        <v>1844</v>
       </c>
       <c r="D16">
-        <v>19444</v>
+        <v>6821</v>
       </c>
       <c r="E16">
-        <v>18048</v>
+        <v>11415</v>
       </c>
       <c r="F16">
-        <v>19214</v>
+        <v>14652</v>
       </c>
       <c r="G16">
-        <v>9178</v>
+        <v>0.2835742444152431</v>
       </c>
       <c r="H16">
-        <v>0.06460549645390071</v>
+        <v>0.4816462736373748</v>
       </c>
       <c r="I16">
-        <v>1.093484419263456</v>
+        <v>9889</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E17">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F17">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="G17">
-        <v>117</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="H17">
-        <v>-0.3823529411764706</v>
+        <v>-0.4794520547945205</v>
       </c>
       <c r="I17">
-        <v>-0.8205128205128205</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C18">
-        <v>463</v>
+        <v>56</v>
       </c>
       <c r="D18">
-        <v>353</v>
+        <v>126</v>
       </c>
       <c r="E18">
-        <v>342</v>
+        <v>256</v>
       </c>
       <c r="F18">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G18">
-        <v>105</v>
+        <v>0.2109375</v>
       </c>
       <c r="H18">
-        <v>-0.0847953216374269</v>
+        <v>1.897196261682243</v>
       </c>
       <c r="I18">
-        <v>1.980952380952381</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>21</v>
+      </c>
+      <c r="E19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19">
-        <v>700</v>
-      </c>
-      <c r="D19">
-        <v>450</v>
-      </c>
-      <c r="E19">
-        <v>453</v>
-      </c>
       <c r="F19">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="G19">
-        <v>349</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="H19">
-        <v>-0.5518763796909493</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="I19">
-        <v>-0.4183381088825215</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D20">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="E20">
-        <v>42</v>
+        <v>339</v>
       </c>
       <c r="F20">
-        <v>44</v>
+        <v>455</v>
       </c>
       <c r="G20">
-        <v>31</v>
+        <v>0.3421828908554572</v>
       </c>
       <c r="H20">
-        <v>0.04761904761904762</v>
+        <v>0.3914373088685015</v>
       </c>
       <c r="I20">
-        <v>0.4193548387096774</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C21">
-        <v>403</v>
+        <v>132</v>
       </c>
       <c r="D21">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="E21">
-        <v>385</v>
+        <v>688</v>
       </c>
       <c r="F21">
-        <v>406</v>
+        <v>860</v>
       </c>
       <c r="G21">
-        <v>249</v>
+        <v>0.25</v>
       </c>
       <c r="H21">
-        <v>0.05454545454545454</v>
+        <v>0.08448928121059268</v>
       </c>
       <c r="I21">
-        <v>0.6305220883534136</v>
+        <v>793</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C22">
-        <v>927</v>
+        <v>153</v>
       </c>
       <c r="D22">
-        <v>876</v>
+        <v>396</v>
       </c>
       <c r="E22">
-        <v>817</v>
+        <v>843</v>
       </c>
       <c r="F22">
-        <v>809</v>
+        <v>937</v>
       </c>
       <c r="G22">
-        <v>561</v>
+        <v>0.1115065243179122</v>
       </c>
       <c r="H22">
-        <v>-0.009791921664626682</v>
+        <v>0.1860759493670886</v>
       </c>
       <c r="I22">
-        <v>0.4420677361853833</v>
+        <v>790</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C23">
-        <v>1446</v>
+        <v>56</v>
       </c>
       <c r="D23">
-        <v>1452</v>
+        <v>239</v>
       </c>
       <c r="E23">
-        <v>1506</v>
+        <v>385</v>
       </c>
       <c r="F23">
-        <v>1241</v>
+        <v>491</v>
       </c>
       <c r="G23">
-        <v>832</v>
+        <v>0.2753246753246753</v>
       </c>
       <c r="H23">
-        <v>-0.1759628154050465</v>
+        <v>0.6587837837837838</v>
       </c>
       <c r="I23">
-        <v>0.4915865384615384</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C24">
-        <v>3966</v>
+        <v>470</v>
       </c>
       <c r="D24">
-        <v>3708</v>
+        <v>1404</v>
       </c>
       <c r="E24">
-        <v>3579</v>
+        <v>2560</v>
       </c>
       <c r="F24">
-        <v>3037</v>
+        <v>3126</v>
       </c>
       <c r="G24">
-        <v>2244</v>
+        <v>0.22109375</v>
       </c>
       <c r="H24">
-        <v>-0.1514389494272143</v>
+        <v>0.2997920997920998</v>
       </c>
       <c r="I24">
-        <v>0.3533868092691622</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C25">
-        <v>42271</v>
+        <v>2927</v>
       </c>
       <c r="D25">
-        <v>36644</v>
+        <v>11196</v>
       </c>
       <c r="E25">
-        <v>33644</v>
+        <v>22445</v>
       </c>
       <c r="F25">
-        <v>35527</v>
+        <v>27770</v>
       </c>
       <c r="G25">
-        <v>17463</v>
+        <v>0.2372466028068612</v>
       </c>
       <c r="H25">
-        <v>0.05596837474735465</v>
+        <v>0.5744415466606191</v>
       </c>
       <c r="I25">
-        <v>1.034415621599954</v>
+        <v>17638</v>
       </c>
     </row>
   </sheetData>
@@ -2531,99 +2543,99 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>340.29734396</v>
+        <v>91.63577604</v>
       </c>
       <c r="C2">
-        <v>307.73042273</v>
+        <v>187.3918861</v>
       </c>
       <c r="D2">
-        <v>239.13557201</v>
+        <v>46.94236689</v>
       </c>
       <c r="E2">
-        <v>0.1058293845018174</v>
+        <v>-0.5109938965495049</v>
       </c>
       <c r="F2">
-        <v>0.4230310492901895</v>
+        <v>0.9520910876677781</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3">
-        <v>903.843183</v>
+        <v>255.914661</v>
       </c>
       <c r="C3">
-        <v>726.498728</v>
+        <v>391.012403</v>
       </c>
       <c r="D3">
-        <v>805.148379</v>
+        <v>226.329264</v>
       </c>
       <c r="E3">
-        <v>0.2441084177644973</v>
+        <v>-0.3455075618151172</v>
       </c>
       <c r="F3">
-        <v>0.1225796469000902</v>
+        <v>0.1307183900001548</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B4">
-        <v>229.531432</v>
+        <v>80.056161</v>
       </c>
       <c r="C4">
-        <v>212.475476</v>
+        <v>116.882267</v>
       </c>
       <c r="D4">
-        <v>238.434817</v>
+        <v>64.55919400000001</v>
       </c>
       <c r="E4">
-        <v>0.0802725863760389</v>
+        <v>-0.3150700867223939</v>
       </c>
       <c r="F4">
-        <v>-0.0373409601501278</v>
+        <v>0.2400427582785497</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>1473.67195896</v>
+        <v>427.60659804</v>
       </c>
       <c r="C5">
-        <v>1246.70462673</v>
+        <v>695.2865561</v>
       </c>
       <c r="D5">
-        <v>1282.71876801</v>
+        <v>337.83082489</v>
       </c>
       <c r="E5">
-        <v>0.1820538140018907</v>
+        <v>-0.3849922822634022</v>
       </c>
       <c r="F5">
-        <v>0.1488659834971022</v>
+        <v>0.2657418048789111</v>
       </c>
     </row>
   </sheetData>
@@ -2644,99 +2656,99 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>52714</v>
+        <v>21434</v>
       </c>
       <c r="C2">
-        <v>48710</v>
+        <v>30994</v>
       </c>
       <c r="D2">
-        <v>29199</v>
+        <v>8313</v>
       </c>
       <c r="E2">
-        <v>0.08220078012728392</v>
+        <v>-0.3084467961540943</v>
       </c>
       <c r="F2">
-        <v>0.8053357991712045</v>
+        <v>1.57837122579093</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3">
-        <v>81082</v>
+        <v>32888</v>
       </c>
       <c r="C3">
-        <v>70300</v>
+        <v>48137</v>
       </c>
       <c r="D3">
-        <v>46288</v>
+        <v>17395</v>
       </c>
       <c r="E3">
-        <v>0.153371266002845</v>
+        <v>-0.3167833475289278</v>
       </c>
       <c r="F3">
-        <v>0.7516851019702731</v>
+        <v>0.8906582351250359</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B4">
-        <v>14290</v>
+        <v>7090</v>
       </c>
       <c r="C4">
-        <v>12277</v>
+        <v>9645</v>
       </c>
       <c r="D4">
-        <v>11310</v>
+        <v>4158</v>
       </c>
       <c r="E4">
-        <v>0.1639651380630447</v>
+        <v>-0.2649040953862105</v>
       </c>
       <c r="F4">
-        <v>0.2634836427939876</v>
+        <v>0.7051467051467052</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>148086</v>
+        <v>61412</v>
       </c>
       <c r="C5">
-        <v>131287</v>
+        <v>88776</v>
       </c>
       <c r="D5">
-        <v>86797</v>
+        <v>29866</v>
       </c>
       <c r="E5">
-        <v>0.1279563094594286</v>
+        <v>-0.3082364603045868</v>
       </c>
       <c r="F5">
-        <v>0.7061188750763275</v>
+        <v>1.056251255608384</v>
       </c>
     </row>
   </sheetData>
@@ -2760,200 +2772,200 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>77062</v>
+        <v>31273</v>
       </c>
       <c r="D2">
-        <v>987.71</v>
+        <v>326.95</v>
       </c>
       <c r="E2">
-        <v>-0.02267892304799972</v>
+        <v>-0.0121162678269277</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>38757</v>
+        <v>75777</v>
       </c>
       <c r="D3">
-        <v>404.38</v>
+        <v>949.9400000000001</v>
       </c>
       <c r="E3">
-        <v>-0.01315372037972518</v>
+        <v>-0.003294581776975685</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>97627</v>
+        <v>62390</v>
       </c>
       <c r="D4">
-        <v>1096.05</v>
+        <v>754.51</v>
       </c>
       <c r="E4">
-        <v>-0.000273635244219414</v>
+        <v>-0.002907322488139506</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C5">
-        <v>64494</v>
+        <v>94413</v>
       </c>
       <c r="D5">
-        <v>780.0700000000001</v>
+        <v>1063.51</v>
       </c>
       <c r="E5">
-        <v>0.0104664568193889</v>
+        <v>-0.002186069203632748</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C6">
-        <v>41952</v>
+        <v>76634</v>
       </c>
       <c r="D6">
-        <v>530.3099999999999</v>
+        <v>921.88</v>
       </c>
       <c r="E6">
-        <v>-0.08204808641013672</v>
+        <v>-0.01540104667307483</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>44274</v>
+        <v>23748</v>
       </c>
       <c r="D7">
-        <v>606.62</v>
+        <v>228.64</v>
       </c>
       <c r="E7">
-        <v>-0.06127944043824088</v>
+        <v>-0.01128648648648655</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C8">
-        <v>20728</v>
+        <v>19601</v>
       </c>
       <c r="D8">
-        <v>245.5</v>
+        <v>233.96</v>
       </c>
       <c r="E8">
-        <v>-0.01693829335682533</v>
+        <v>-0.007845299181544439</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9">
-        <v>29363</v>
+        <v>55395</v>
       </c>
       <c r="D9">
-        <v>280.86</v>
+        <v>676.27</v>
       </c>
       <c r="E9">
-        <v>-0.008892652974804086</v>
+        <v>-0.005002427648711841</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C10">
-        <v>56899</v>
+        <v>40241</v>
       </c>
       <c r="D10">
-        <v>687.11</v>
+        <v>507.05</v>
       </c>
       <c r="E10">
-        <v>-0.006377255900046229</v>
+        <v>-0.002164715143166321</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11">
-        <v>78739</v>
+        <v>43748</v>
       </c>
       <c r="D11">
-        <v>944.47</v>
+        <v>601.87</v>
       </c>
       <c r="E11">
-        <v>0.01392377885131511</v>
+        <v>0.00542915372022318</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C12">
-        <v>549895</v>
+        <v>523220</v>
       </c>
       <c r="D12">
-        <v>6563.080000000001</v>
+        <v>6264.58</v>
       </c>
       <c r="E12">
-        <v>-0.0158529270633395</v>
+        <v>-0.005052101283433904</v>
       </c>
     </row>
   </sheetData>
